--- a/Template/Export/Denominadores_D1_9.xlsx
+++ b/Template/Export/Denominadores_D1_9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\Template\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,15 +29,6 @@
     <t>Hospital</t>
   </si>
   <si>
-    <t>StartDateOfWeek</t>
-  </si>
-  <si>
-    <t>EW</t>
-  </si>
-  <si>
-    <t>EpiYear</t>
-  </si>
-  <si>
     <t>Grupo_edad</t>
   </si>
   <si>
@@ -114,6 +105,15 @@
   </si>
   <si>
     <t>VentST</t>
+  </si>
+  <si>
+    <t>Sem_Epidemiológica</t>
+  </si>
+  <si>
+    <t>Año_Epidemiológico</t>
+  </si>
+  <si>
+    <t>Fecha_Inicio_Semana</t>
   </si>
 </sst>
 </file>
@@ -478,15 +478,16 @@
   <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -519,91 +520,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Export/Denominadores_D1_9.xlsx
+++ b/Template/Export/Denominadores_D1_9.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AD$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -35,9 +35,6 @@
     <t>ETINumFem</t>
   </si>
   <si>
-    <t>ETINumMaso</t>
-  </si>
-  <si>
     <t>ETINumST</t>
   </si>
   <si>
@@ -47,63 +44,36 @@
     <t>ETIDenoFem</t>
   </si>
   <si>
-    <t>ETIDenoMaso</t>
-  </si>
-  <si>
     <t>ETIDenoST</t>
   </si>
   <si>
     <t>HospFem</t>
   </si>
   <si>
-    <t>HospMaso</t>
-  </si>
-  <si>
     <t>HospST</t>
   </si>
   <si>
     <t>UCIFem</t>
   </si>
   <si>
-    <t>UCIMaso</t>
-  </si>
-  <si>
     <t>UCIST</t>
   </si>
   <si>
     <t>DefFem</t>
   </si>
   <si>
-    <t>DefMaso</t>
-  </si>
-  <si>
     <t>DefST</t>
   </si>
   <si>
     <t>NeuFem</t>
   </si>
   <si>
-    <t>NeuMaso</t>
-  </si>
-  <si>
     <t>NeuST</t>
   </si>
   <si>
-    <t>CCSARIFem</t>
-  </si>
-  <si>
-    <t>CCSARIMaso</t>
-  </si>
-  <si>
-    <t>CCSARIST</t>
-  </si>
-  <si>
     <t>VentFem</t>
   </si>
   <si>
-    <t>VentMaso</t>
-  </si>
-  <si>
     <t>VentST</t>
   </si>
   <si>
@@ -114,6 +84,36 @@
   </si>
   <si>
     <t>Fecha_Inicio_Semana</t>
+  </si>
+  <si>
+    <t>ETINumMasc</t>
+  </si>
+  <si>
+    <t>ETIDenoMasc</t>
+  </si>
+  <si>
+    <t>HospMasc</t>
+  </si>
+  <si>
+    <t>UCIMasc</t>
+  </si>
+  <si>
+    <t>DefMasc</t>
+  </si>
+  <si>
+    <t>NeuMasc</t>
+  </si>
+  <si>
+    <t>VentMasc</t>
+  </si>
+  <si>
+    <t>CCIRAGST</t>
+  </si>
+  <si>
+    <t>CCIRAGMasc</t>
+  </si>
+  <si>
+    <t>CCIRAGFem</t>
   </si>
 </sst>
 </file>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -535,76 +535,76 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Export/Denominadores_D1_9.xlsx
+++ b/Template/Export/Denominadores_D1_9.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Hospital</t>
   </si>
@@ -107,19 +107,43 @@
     <t>VentMasc</t>
   </si>
   <si>
-    <t>CCIRAGST</t>
-  </si>
-  <si>
-    <t>CCIRAGMasc</t>
-  </si>
-  <si>
-    <t>CCIRAGFem</t>
+    <t>ETINumEmerFem</t>
+  </si>
+  <si>
+    <t>UCIIRAGFem</t>
+  </si>
+  <si>
+    <t>UCIIRAGST</t>
+  </si>
+  <si>
+    <t>HospSARIFem</t>
+  </si>
+  <si>
+    <t>HospSARIST</t>
+  </si>
+  <si>
+    <t>ETINumEmerMasc</t>
+  </si>
+  <si>
+    <t>HospSARIMasc</t>
+  </si>
+  <si>
+    <t>UCIIRAGMasc</t>
+  </si>
+  <si>
+    <t>DefIRAGFem</t>
+  </si>
+  <si>
+    <t>DefIRAGMasc</t>
+  </si>
+  <si>
+    <t>DefIRAGST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40A]dd/mmm/yyyy;@"/>
   </numFmts>
@@ -140,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +174,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,11 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -492,30 +531,38 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,86 +578,110 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AK1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AL1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1"/>
+  <autoFilter ref="A1:AL1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
